--- a/uploads/2021_Learning_Destination.xlsx
+++ b/uploads/2021_Learning_Destination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lincoln Uni\Computing\639\pj2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lincoln Uni\Computing\639\pj2\demo data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6DF675-647E-45F8-A00B-24BE393CC3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8E90B1-7933-48D9-AD60-07FB0F41039A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="58">
   <si>
     <t>Paperwork</t>
   </si>
@@ -176,30 +176,6 @@
   </si>
   <si>
     <t>1st Floor Eastgate Shopping Centre, Buckleys Road, Christchurch</t>
-  </si>
-  <si>
-    <t>Little River Library</t>
-  </si>
-  <si>
-    <t>State Highway 75, Little River</t>
-  </si>
-  <si>
-    <t>Lyttelton Library</t>
-  </si>
-  <si>
-    <t>18 Canterbury Street, Lyttelton</t>
-  </si>
-  <si>
-    <t>Matuku Takotako: Sumner Centre</t>
-  </si>
-  <si>
-    <t>14 Wakefield Avenue, Sumner</t>
-  </si>
-  <si>
-    <t>New Brighton Library</t>
-  </si>
-  <si>
-    <t>213 Marine Parade, New Brighton</t>
   </si>
   <si>
     <t>No</t>
@@ -715,10 +691,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -816,7 +792,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>21</v>
@@ -855,7 +831,7 @@
         <v>32</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="P3" s="10" t="s">
         <v>33</v>
@@ -867,14 +843,14 @@
         <v>33</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="T3" s="2"/>
       <c r="U3" s="8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -882,7 +858,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>34</v>
@@ -933,14 +909,14 @@
         <v>33</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="T4" s="2"/>
       <c r="U4" s="13" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="V4" s="13" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -948,7 +924,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>44</v>
@@ -999,14 +975,14 @@
         <v>33</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="T5" s="4"/>
       <c r="U5" s="13" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="V5" s="13" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1014,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>46</v>
@@ -1065,13 +1041,13 @@
         <v>33</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="U6" s="13" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="V6" s="13" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1079,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>48</v>
@@ -1130,13 +1106,13 @@
         <v>33</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="U7" s="13" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="V7" s="13" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1144,7 +1120,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>50</v>
@@ -1195,277 +1171,17 @@
         <v>33</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="U8" s="13" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="V8" s="13" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P9" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="U9" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="V9" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="R10" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="S10" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="U10" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="V10" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="R11" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="S11" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="U11" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="V11" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P12" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q12" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="R12" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="S12" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="U12" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="V12" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N19" s="19"/>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N15" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
